--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1407.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1407.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.972899213976226</v>
+        <v>1.189457535743713</v>
       </c>
       <c r="B1">
-        <v>2.543120572092368</v>
+        <v>1.761683821678162</v>
       </c>
       <c r="C1">
-        <v>2.691341056834083</v>
+        <v>6.555927753448486</v>
       </c>
       <c r="D1">
-        <v>3.301848066665047</v>
+        <v>2.285098075866699</v>
       </c>
       <c r="E1">
-        <v>1.0462610415426</v>
+        <v>1.192834496498108</v>
       </c>
     </row>
   </sheetData>
